--- a/Raw_Data/F037_For_PR_MYP.xlsx
+++ b/Raw_Data/F037_For_PR_MYP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18520" windowHeight="7670" activeTab="3"/>
+    <workbookView windowWidth="19190" windowHeight="7670"/>
   </bookViews>
   <sheets>
     <sheet name="Uncut Sheet" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t>Doc. No</t>
   </si>
@@ -40,7 +40,7 @@
     <t>RM Name</t>
   </si>
   <si>
-    <t>PR-CHK</t>
+    <t>PR-MYP</t>
   </si>
   <si>
     <t>UOM</t>
@@ -73,9 +73,6 @@
     <t>2023-11</t>
   </si>
   <si>
-    <t>PR-SYP</t>
-  </si>
-  <si>
     <t>Caps</t>
   </si>
   <si>
@@ -90,11 +87,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -150,11 +147,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,9 +162,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,9 +192,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,9 +239,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,45 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,23 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +318,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,37 +432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,25 +462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,90 +490,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="45">
     <border>
@@ -957,45 +954,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,7 +977,57 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,162 +1055,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,10 +1223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2641,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3155,8 +3152,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3217,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -3267,14 +3264,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="44" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="47"/>
       <c r="G10" s="44" t="s">
@@ -3327,7 +3324,7 @@
         <v>1007</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:8">
@@ -3671,7 +3668,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4182,8 +4179,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4327,7 +4324,9 @@
         <f>B12-D12</f>
         <v>28</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="34" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:7">
       <c r="A13" s="35"/>

--- a/Raw_Data/F037_For_PR_MYP.xlsx
+++ b/Raw_Data/F037_For_PR_MYP.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19190" windowHeight="7670"/>
+    <workbookView windowWidth="19190" windowHeight="7670" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Uncut Sheet" sheetId="3" r:id="rId1"/>
-    <sheet name="Cassette" sheetId="2" r:id="rId2"/>
-    <sheet name="Pipette" sheetId="4" r:id="rId3"/>
-    <sheet name="Buffer" sheetId="5" r:id="rId4"/>
+    <sheet name="Uncut Sheet_1" sheetId="3" r:id="rId1"/>
+    <sheet name="Cassette_1" sheetId="2" r:id="rId2"/>
+    <sheet name="Pipette_1" sheetId="4" r:id="rId3"/>
+    <sheet name="Buffer_1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Cassette!$A$1:$H$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Uncut Sheet'!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Pipette!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Buffer!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Cassette_1!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Uncut Sheet_1'!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Pipette_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Buffer_1!$A$1:$G$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -87,11 +87,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -147,8 +147,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,46 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -224,10 +208,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,16 +253,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,7 +277,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,21 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,25 +306,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +384,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,139 +474,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,6 +954,32 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,6 +995,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,43 +1032,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,160 +1055,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,10 +1223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2638,7 +2638,7 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
@@ -4179,8 +4179,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>

--- a/Raw_Data/F037_For_PR_MYP.xlsx
+++ b/Raw_Data/F037_For_PR_MYP.xlsx
@@ -7,23 +7,23 @@
     <workbookView windowWidth="19190" windowHeight="7670" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Uncut Sheet_1" sheetId="3" r:id="rId1"/>
-    <sheet name="Cassette_1" sheetId="2" r:id="rId2"/>
-    <sheet name="Pipette_1" sheetId="4" r:id="rId3"/>
-    <sheet name="Buffer_1" sheetId="5" r:id="rId4"/>
+    <sheet name="Uncut_Sheet_1" sheetId="6" r:id="rId1"/>
+    <sheet name="Cassette_1" sheetId="7" r:id="rId2"/>
+    <sheet name="Pipette_1" sheetId="8" r:id="rId3"/>
+    <sheet name="Buffer_1" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Cassette_1!$A$1:$H$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Uncut Sheet_1'!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Pipette_1!$A$1:$G$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Buffer_1!$A$1:$G$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Uncut_Sheet_1!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Cassette_1!$A$1:$I$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Pipette_1!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Buffer_1!$A$1:$H$42</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
   <si>
     <t>Doc. No</t>
   </si>
@@ -49,6 +49,12 @@
     <t>25 TESTS/BOX</t>
   </si>
   <si>
+    <t>COMPONENTS</t>
+  </si>
+  <si>
+    <t>UNCUT SHEET</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>Balance Quantity</t>
   </si>
   <si>
+    <t>Exp Date</t>
+  </si>
+  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -73,13 +82,13 @@
     <t>2023-11</t>
   </si>
   <si>
+    <t>CASSETTE</t>
+  </si>
+  <si>
     <t>Caps</t>
   </si>
   <si>
     <t>Panel</t>
-  </si>
-  <si>
-    <t>LOT NUMBER</t>
   </si>
 </sst>
 </file>
@@ -87,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="180" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
@@ -147,9 +156,55 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,31 +225,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,8 +264,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -217,7 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,61 +294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,13 +315,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +441,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,162 +489,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -519,6 +528,15 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -541,12 +559,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -556,6 +587,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -565,7 +624,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -580,22 +639,46 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -607,10 +690,19 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -620,10 +712,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -632,7 +724,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -644,15 +736,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -663,9 +762,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -680,6 +777,36 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -705,11 +832,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -749,10 +895,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -766,33 +910,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -825,16 +943,53 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -851,51 +1006,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -922,17 +1042,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -958,13 +1067,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,17 +1145,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,51 +1183,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,336 +1200,401 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1511,15 +1706,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781685</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1528,8 +1723,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847975" y="47625"/>
-          <a:ext cx="3322320" cy="320675"/>
+          <a:off x="2835275" y="6350"/>
+          <a:ext cx="4116705" cy="320675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1969,15 +2164,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781685</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1986,8 +2181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847975" y="47625"/>
-          <a:ext cx="3322320" cy="320675"/>
+          <a:off x="2835275" y="6350"/>
+          <a:ext cx="4116705" cy="320675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2198,15 +2393,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781685</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2215,8 +2410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847975" y="47625"/>
-          <a:ext cx="3322320" cy="320675"/>
+          <a:off x="2835275" y="6350"/>
+          <a:ext cx="4116705" cy="320675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2639,7 +2834,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -2651,45 +2846,49 @@
     <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+    <col min="8" max="8" width="11.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
         <v>41473</v>
       </c>
       <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" ht="15.25"/>
-    <row r="5" spans="1:8">
+    <row r="5" ht="15.25" spans="1:8">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -2699,376 +2898,421 @@
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="15.25" spans="1:8">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" ht="15.25" spans="1:8">
       <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:7">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="C7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="24">
+        <v>2022</v>
+      </c>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" ht="15.25"/>
-    <row r="10" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" ht="15.5" spans="1:7">
-      <c r="A12" s="29" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="30">
+      <c r="G10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37">
         <v>7</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39">
         <v>7</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33">
+      <c r="E12" s="39"/>
+      <c r="F12" s="40">
         <f>B12-D12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36">
+      <c r="G12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43">
         <f>F12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="35"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="35"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="35"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="35"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="35"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="35"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="38"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="38"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="35"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="35"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="35"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="35"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="35"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="38"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="35"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="35"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="38"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="43"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="43"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="43"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="43"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="43"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="43"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="43"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="43"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="43"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="43"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="43"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="43"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="43"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="43"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="43"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="43"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="43"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="43"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" ht="15.25" spans="1:8">
+      <c r="A42" s="43"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="79">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
@@ -3135,13 +3379,14 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="D1:H2"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="D10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3150,13 +3395,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
+      <selection activeCell="C5" sqref="C5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.5545454545455" customWidth="1"/>
     <col min="2" max="2" width="14.3363636363636" customWidth="1"/>
@@ -3165,484 +3410,534 @@
     <col min="6" max="6" width="11.6636363636364" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="13.1090909090909" customWidth="1"/>
+    <col min="9" max="9" width="11.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7">
+      <c r="F3" s="7"/>
+      <c r="G3" s="53">
         <v>41473</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" ht="15.25"/>
-    <row r="5" spans="1:8">
+    <row r="5" ht="15.25" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="86"/>
+    </row>
+    <row r="6" ht="15.25" spans="1:9">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" ht="15.25" spans="1:9">
       <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="23"/>
+      <c r="C7" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:9">
+      <c r="A8" s="21"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="59">
+        <v>2022</v>
+      </c>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" ht="15.25"/>
-    <row r="10" ht="16.5" customHeight="1" spans="1:8">
-      <c r="A10" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="45" t="s">
+    <row r="10" ht="16.5" customHeight="1" spans="1:9">
+      <c r="A10" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="44" t="s">
+    </row>
+    <row r="11" ht="15.25" spans="1:9">
+      <c r="A11" s="64"/>
+      <c r="B11" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="C11" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="64"/>
+      <c r="E11" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:9">
+      <c r="A12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:8">
-      <c r="A11" s="48"/>
-      <c r="B11" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" ht="15.5" spans="1:8">
-      <c r="A12" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="52">
+      <c r="B12" s="68">
         <v>1516</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="69">
         <v>506</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="36">
         <f>B12-C12</f>
         <v>1010</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="70">
         <v>1513</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="71">
         <v>506</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="36">
         <f>E12-F12</f>
         <v>1007</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:8">
-      <c r="A13" s="35"/>
-      <c r="B13" s="56">
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A13" s="42"/>
+      <c r="B13" s="72">
         <f>D12</f>
         <v>1010</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="56">
+      <c r="C13" s="73"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="72">
         <f>G12</f>
         <v>1007</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="35"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="35"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="35"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="35"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="35"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="35"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="35"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="35"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="35"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="35"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="35"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="35"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="35"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="35"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="35"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="35"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="35"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="35"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="35"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="35"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="35"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="35"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="38"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="35"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="38"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="35"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="35"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="35"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="35"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="38"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="35"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="38"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="35"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="38"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="42"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="42"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="42"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="42"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="42"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="42"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="42"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="42"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="42"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="42"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="42"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="42"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="42"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="42"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="42"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="42"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="42"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="42"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="42"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="42"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="42"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="42"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="42"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="42"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="42"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="42"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="42"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="42"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="42"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A5:A8"/>
@@ -3650,14 +3945,13 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" scale="90" orientation="portrait"/>
+  <pageSetup paperSize="1" scale="80" orientation="portrait"/>
   <headerFooter/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="8" max="1048575" man="1"/>
-  </colBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3667,8 +3961,8 @@
   <sheetPr/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3680,45 +3974,49 @@
     <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+    <col min="8" max="8" width="11.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
         <v>41473</v>
       </c>
       <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" ht="15.25"/>
-    <row r="5" spans="1:8">
+    <row r="5" ht="15.25" spans="1:8">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -3728,374 +4026,421 @@
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="15.25" spans="1:8">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" ht="15.25" spans="1:8">
       <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:7">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="C7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="24">
+        <v>2022</v>
+      </c>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" ht="15.25"/>
-    <row r="10" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" ht="15.5" spans="1:7">
-      <c r="A12" s="29" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="30">
+      <c r="G10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37">
         <v>1594</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39">
         <v>506</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33">
+      <c r="E12" s="39"/>
+      <c r="F12" s="40">
         <f>B12-D12</f>
         <v>1088</v>
       </c>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36">
+      <c r="G12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43">
         <f>F12</f>
         <v>1088</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="35"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="35"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="35"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="35"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="35"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="35"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="38"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="38"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="35"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="35"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="35"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="35"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="35"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="38"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="35"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="35"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="38"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="43"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="43"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="43"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="43"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="43"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="43"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="43"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="43"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="43"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="43"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="43"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="43"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="43"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="43"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="43"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="43"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="43"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="43"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" ht="15.25" spans="1:8">
+      <c r="A42" s="43"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="79">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
@@ -4162,13 +4507,14 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="D1:H2"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="D10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4180,7 +4526,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4192,45 +4538,49 @@
     <col min="5" max="5" width="11.6636363636364" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="13.1090909090909" customWidth="1"/>
+    <col min="8" max="8" width="11.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7">
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
         <v>41473</v>
       </c>
       <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" ht="15.25"/>
-    <row r="5" spans="1:8">
+    <row r="5" ht="15.25" spans="1:8">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -4240,376 +4590,421 @@
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="15.25" spans="1:8">
       <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" ht="15.25" spans="1:8">
       <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" ht="15.25" spans="1:7">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="C7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" ht="15.25" spans="1:8">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="24">
+        <v>2022</v>
+      </c>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" ht="15.25"/>
-    <row r="10" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
+    <row r="10" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" ht="15.25" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" ht="15.5" spans="1:7">
-      <c r="A12" s="29" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="30">
+      <c r="G10" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="1:8">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" ht="15.5" spans="1:8">
+      <c r="A12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37">
         <v>48</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39">
         <v>20</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33">
+      <c r="E12" s="39"/>
+      <c r="F12" s="40">
         <f>B12-D12</f>
         <v>28</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36">
+      <c r="G12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43">
         <f>F12</f>
         <v>28</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="35"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="35"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="35"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="35"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="35"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="35"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="35"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="35"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="38"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="35"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="38"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="38"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="35"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="38"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="35"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="35"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="35"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="35"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="38"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="35"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="35"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="38"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="43"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="43"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="43"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="43"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="43"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="43"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="43"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="43"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="43"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="43"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="43"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="43"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="43"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="43"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="43"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="43"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="43"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="43"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+    </row>
+    <row r="42" ht="15.25" spans="1:8">
+      <c r="A42" s="43"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="79">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
@@ -4676,13 +5071,14 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="D1:H2"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="D10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
